--- a/biology/Zoologie/Balitora/Balitora.xlsx
+++ b/biology/Zoologie/Balitora/Balitora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Balitora est un genre de poissons téléostéens de la famille des Balitoridae et de l'ordre des Cypriniformes.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (10 juillet 2015)[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (10 juillet 2015):
 Balitora annamitica Kottelat, 1988
 Balitora brucei Gray, 1830
 Balitora burmanica Hora, 1932
@@ -533,19 +547,53 @@
 Balitora nujiangensis Zhang &amp; Zheng, 1983
 Balitora tchangi Zheng, 1982
 Balitora vanlani Nguyen, 2005
-Balitora vanlongi Nguyen, 2005
-Note
-Selon Kottelat, M. (2012) et Raghavan, R., Tharian, J., Ali, A., Jadhav, S. &amp; Dahanukar, N. (2013), seulement 13 espèces[2],[3] :
+Balitora vanlongi Nguyen, 2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Balitora</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Balitora</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Kottelat, M. (2012) et Raghavan, R., Tharian, J., Ali, A., Jadhav, S. &amp; Dahanukar, N. (2013), seulement 13 espèces, :
 Balitora annamitica Kottelat, 1988
 Balitora brucei J. E. Gray, 1830
 Balitora burmanica Hora, 1932
 Balitora eddsi Conway &amp; Mayden, 2010
-Balitora jalpalli Raghavan, Tharian, Ali, Jadhav &amp; Dahanukar, 2013[3]
+Balitora jalpalli Raghavan, Tharian, Ali, Jadhav &amp; Dahanukar, 2013
 Balitora kwangsiensis (P. W. Fang, 1930)
 Balitora lancangjiangensis (C. Y. Zheng, 1980)
-Balitora laticauda Bhoite, Jadhav &amp; Dahanukar, 2012[4]
+Balitora laticauda Bhoite, Jadhav &amp; Dahanukar, 2012
 Balitora longibarbata (Y. R. Chen, 1982)
-Balitora ludongensis S. W. Liu, Y. Zhu, R. F. Wei &amp; X. Y. Chen, 2012[5]
+Balitora ludongensis S. W. Liu, Y. Zhu, R. F. Wei &amp; X. Y. Chen, 2012
 Balitora meridionalis Kottelat, 1988
 Balitora mysorensis Hora, 1941 (Slender stone loach)
 Balitora nantingensis X. Y. Chen, G. H. Cui &amp; J. X. Yang, 2005</t>
